--- a/266-ter_MAJ_AnnexeNomenclaturesCNSA/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/266-ter_MAJ_AnnexeNomenclaturesCNSA/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T14:19:11+00:00</t>
+    <t>2025-01-30T14:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
